--- a/output/bot/plemiona.xlsx
+++ b/output/bot/plemiona.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\PycharmProjects\bot_pleamiona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\PycharmProjects\bot_pleamiona\output\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76291AC0-53B6-419C-8CCF-AB6A10990FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B532920E-6E8C-415E-B551-1027FEB7B6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35490" yWindow="1905" windowWidth="21135" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36075" yWindow="2580" windowWidth="21135" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:V3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,11 +729,11 @@
         <v>1.7786591782076218</v>
       </c>
       <c r="D3" s="14">
-        <v>44099.33518396991</v>
+        <v>44099.337268518517</v>
       </c>
       <c r="E3" s="17">
         <f>D3-C3</f>
-        <v>44097.556524791704</v>
+        <v>44097.558609340311</v>
       </c>
       <c r="G3">
         <v>32201</v>
